--- a/medicine/Enfance/Enfant-loup_(Seconde_Guerre_mondiale)/Enfant-loup_(Seconde_Guerre_mondiale).xlsx
+++ b/medicine/Enfance/Enfant-loup_(Seconde_Guerre_mondiale)/Enfant-loup_(Seconde_Guerre_mondiale).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Enfants-loups (allemand : Wolfskinder) est le nom donné aux orphelins de guerre allemands originaires de Prusse-Orientale qui, dans les premières années de l'après-guerre (à partir de 1946-1947), furent contraints par la faim d'émigrer en Lituanie, plus rarement en Biélorussie ou dans les autres pays baltes. Le terme Wolfskinder désignait initialement en allemand les cas d'enfants sauvages élevés à l'écart des êtres humains. Il est employé à partir des années 1990 pour désigner les enfants errants originaires de Prusse-Orientale, que les paysans lituaniens désignaient par le surnom vokietukai, les « petits Allemands ».
 C'était par exemple le cas en Prusse orientale où beaucoup d'enfants furent séparés de leur famille dans les dernières heures de la guerre. Souvent comparés à des loups affamés, bon nombre d'entre eux vivaient en marge du reste de l'humanité, condamnés à une vie d'errance dans des forêts hostiles. Plus tard, on leur donna le nom d'enfants-loups. 
@@ -515,7 +527,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Ruth Kibelka, (de) Wolfskinder. Grenzgänger an der Memel, n° 4, éd. Basisdruck, Berlin 2003  (ISBN 3-86163-064-8).
 Ruth Leiserowitz, (de) Von Ostpreußen nach Kyritz – Wolfskinder auf dem Weg nach Brandenburg, Potsdam 2003,  (ISBN 3-932502-33-7) - Wolfskinder aus Ostpreußen.
@@ -553,7 +567,9 @@
           <t>Article connexe</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Enfant sauvage</t>
         </is>
